--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -293,6 +293,30 @@
   <si>
     <t>Nạp lại FW</t>
   </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>125.212.235.144,14040</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -787,6 +811,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10158,8 +10185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10372,7 +10399,9 @@
       <c r="B6" s="61">
         <v>44867</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44869</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -10394,12 +10423,22 @@
         <v>69</v>
       </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="86" t="s">
@@ -10417,7 +10456,9 @@
       <c r="B7" s="61">
         <v>44867</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44869</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>65</v>
       </c>
@@ -10470,7 +10511,9 @@
       <c r="B8" s="61">
         <v>44867</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44869</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>65</v>
       </c>
@@ -10894,7 +10937,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11203,7 +11246,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -11395,7 +11438,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12488,8 +12531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12702,7 +12745,9 @@
       <c r="B6" s="61">
         <v>44867</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44869</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12714,16 +12759,32 @@
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="K6" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
       <c r="U6" s="86" t="s">
@@ -12741,7 +12802,9 @@
       <c r="B7" s="61">
         <v>44867</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44869</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -12794,7 +12857,9 @@
       <c r="B8" s="61">
         <v>44867</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44869</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -12816,12 +12881,22 @@
       <c r="L8" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
       <c r="U8" s="87"/>
@@ -13176,7 +13251,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13645,7 +13720,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13709,7 +13784,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17069,7 +17144,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17282,7 +17357,9 @@
       <c r="B6" s="61">
         <v>44867</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44869</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -17294,16 +17371,34 @@
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="I6" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>82</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>84</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="86" t="s">
@@ -17782,7 +17877,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -18059,7 +18154,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18187,7 +18282,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18251,7 +18346,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
